--- a/trend_results/Rivers/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
+++ b/trend_results/Rivers/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.560085419994085</v>
+        <v>0.439914580005915</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.999992239405883</v>
+        <v>7.760594117001141e-06</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">

--- a/trend_results/Rivers/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
+++ b/trend_results/Rivers/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
@@ -558,14 +558,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.439914580005915</v>
+        <v>0.897803005212761</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9649122807017541</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.66</v>
+        <v>0.3575</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.024796037719579</v>
+        <v>0.0183139074595356</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.284090342438251</v>
+        <v>-0.0032511111542115</v>
       </c>
       <c r="M2" t="n">
-        <v>0.198687513234897</v>
+        <v>0.0498309632303818</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.323708064224268</v>
+        <v>5.1227713173526</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.919347886758245</v>
+        <v>0.718814753946205</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.775862068965517</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08599999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0048315712280561</v>
+        <v>0.070240384615384</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0079003114816083</v>
+        <v>-0.118300787436266</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0004983629671017</v>
+        <v>0.448458915387036</v>
       </c>
       <c r="N3" t="n">
-        <v>-5.61810607913507</v>
+        <v>0.924215587044526</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.356211124939333</v>
+        <v>0.900630225776796</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.879310344827586</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>0.08</v>
       </c>
       <c r="K4" t="n">
-        <v>6.43072012445977</v>
+        <v>-0.0032477770177838</v>
       </c>
       <c r="L4" t="n">
-        <v>-53.1755011618265</v>
+        <v>-0.006269987923553</v>
       </c>
       <c r="M4" t="n">
-        <v>65.3962051732704</v>
+        <v>0.0005011572395137</v>
       </c>
       <c r="N4" t="n">
-        <v>1.94870306801811</v>
+        <v>-4.05972127222982</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -819,7 +819,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.985737489422195</v>
+        <v>0.13039898847312</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.227139597658306</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0293536357018066</v>
+        <v>38.3129370629371</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0557167205090296</v>
+        <v>-8.603451635306939</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0134953411746731</v>
+        <v>84.8992559585398</v>
       </c>
       <c r="N5" t="n">
-        <v>-12.9231697178421</v>
+        <v>11.4366976307275</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.354694057507113</v>
+        <v>0.918932428632945</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.568965517241379</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0325</v>
+        <v>0.219102949143148</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0004146431821136</v>
+        <v>-0.0180721377886926</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0010048143053645</v>
+        <v>-0.0426406342231193</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0019643745828621</v>
+        <v>0.0012746623701812</v>
       </c>
       <c r="N6" t="n">
-        <v>1.27582517573418</v>
+        <v>-8.248240317790209</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.246697994081872</v>
+        <v>0.0046054837827951</v>
       </c>
       <c r="G7" t="n">
-        <v>0.137931034482759</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H7" t="n">
-        <v>0.844827586206897</v>
+        <v>0.62962962962963</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2295</v>
+        <v>0.032</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0018857568747371</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0023304209460442</v>
+        <v>0.0006956706392006</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0240725683620562</v>
+        <v>0.0050146526713656</v>
       </c>
       <c r="N7" t="n">
-        <v>0.82168055544101</v>
+        <v>6.27146291208791</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.760594117001141e-06</v>
+        <v>0.180213409358828</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="H8" t="n">
-        <v>0.701754385964912</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>7.71</v>
+        <v>0.2295</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0619489662828418</v>
+        <v>0.0025154958677686</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.08020829234845681</v>
+        <v>-0.0015779376213833</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0408971892315589</v>
+        <v>0.0204454917079344</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.803488538039453</v>
+        <v>1.09607663083599</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1181,7 +1181,11 @@
           <t>West_6</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1191,7 +1195,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1206,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>0.0001863436933889</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.879310344827586</v>
+        <v>0.69811320754717</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.84</v>
+        <v>7.66</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.001253431708991</v>
+        <v>-0.0547377384196187</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0404560809345184</v>
+        <v>-0.07925535256358821</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0601338283933253</v>
+        <v>-0.0300189955845232</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.149218060594176</v>
+        <v>-0.714591885373612</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1268,11 +1272,7 @@
           <t>West_6</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1282,14 +1282,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.814157590882949</v>
+        <v>0.765847801010921</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.5</v>
+        <v>0.78</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.967549668874172</v>
+        <v>-0.0199863201094391</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.79258161455539</v>
+        <v>-0.0537676665121265</v>
       </c>
       <c r="M10" t="n">
-        <v>0.632835395911151</v>
+        <v>0.0374323242374511</v>
       </c>
       <c r="N10" t="n">
-        <v>-6.67275633706326</v>
+        <v>-2.56234873197938</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.470455488613916</v>
+        <v>0.0853592098984126</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.913793103448276</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.14</v>
+        <v>2.105</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0100343406593407</v>
+        <v>0.0499658002735978</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0298462292046236</v>
+        <v>-0.0042477846511728</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0760604392420363</v>
+        <v>0.0999130716239377</v>
       </c>
       <c r="N11" t="n">
-        <v>0.468894423333676</v>
+        <v>2.37367222202365</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.715752240330488</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.879310344827586</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2615</v>
+        <v>0.246</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0054352678571428</v>
+        <v>0.0002498290013679</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0216935200815495</v>
+        <v>-0.0179411849736504</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0110487124998413</v>
+        <v>0.0190245917175911</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.07849631248293</v>
+        <v>0.101556504621134</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
